--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_7_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_7_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8500000000006</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.950758869435632e-16</v>
+        <v>2.453531546132943e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.80230693168314</v>
+        <v>51.19227769964967</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.498342332450555, 55.10627153091573]</t>
+          <t>[41.38143799806999, 61.00311740122934]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.603816069400195</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3773949772495797, 1.8302371615508104]</t>
+          <t>[1.2893423303021168, 1.7170266154755032]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.39258300189628</v>
+        <v>67.50247185585825</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.344630346433505, 68.44053565735906]</t>
+          <t>[61.28657165031038, 73.71837206140611]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.2516516516521</v>
+        <v>19.37657657657699</v>
       </c>
       <c r="X2" t="n">
-        <v>18.32012012012055</v>
+        <v>18.50972972973012</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.18318318318365</v>
+        <v>20.24342342342386</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.35000000000052</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.950758869435632e-16</v>
+        <v>2.453531546132943e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>50.52102260582014</v>
+        <v>47.769988475892</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.91938544174561, 62.122659769894675]</t>
+          <t>[36.55825030822983, 58.98172664355417]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="N3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.012605439895809</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.7736053981812709, 1.2516054816103477]</t>
+          <t>[0.786184347745194, 1.2893423303021168]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>9.547918011776346e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>9.547918011776346e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>63.3572320222893</v>
+        <v>63.70868812473351</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.21640559566028, 69.49805844891831]</t>
+          <t>[57.63691483031053, 69.78046141915648]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.264564564565</v>
+        <v>21.1964564564569</v>
       </c>
       <c r="X3" t="n">
-        <v>20.30030030030072</v>
+        <v>20.17983983984027</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.22882882882929</v>
+        <v>22.21307307307353</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_7_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_7_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.47000000000054</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.453531546132943e-16</v>
+        <v>2.277380563333655e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>51.19227769964967</v>
+        <v>48.89655434230635</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[41.38143799806999, 61.00311740122934]</t>
+          <t>[39.827592869856225, 57.965515814756465]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.50318447288881</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2893423303021168, 1.7170266154755032]</t>
+          <t>[1.364816027685655, 1.767342413731197]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>67.50247185585825</v>
+        <v>64.01758272927451</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[61.28657165031038, 73.71837206140611]</t>
+          <t>[58.00325415639638, 70.03191130215264]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.37657657657699</v>
+        <v>19.13663663663704</v>
       </c>
       <c r="X2" t="n">
-        <v>18.50972972973012</v>
+        <v>18.32014014014052</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.24342342342386</v>
+        <v>19.95313313313356</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.39000000000053</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.453531546132943e-16</v>
+        <v>2.277380563333655e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.769988475892</v>
+        <v>51.78210040389934</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.55825030822983, 58.98172664355417]</t>
+          <t>[40.41110318531873, 63.15309762247994]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.037763339023655</v>
+        <v>1.050342288587579</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.786184347745194, 1.2893423303021168]</t>
+          <t>[0.836500146000887, 1.2641844311742716]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>9.547918011776346e-15</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.547918011776346e-15</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.70868812473351</v>
+        <v>62.79871403994091</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.63691483031053, 69.78046141915648]</t>
+          <t>[56.886411553373755, 68.71101652650808]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.1964564564569</v>
+        <v>21.10398398398442</v>
       </c>
       <c r="X3" t="n">
-        <v>20.17983983984027</v>
+        <v>20.24156156156198</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.21307307307353</v>
+        <v>21.96640640640686</v>
       </c>
     </row>
   </sheetData>
